--- a/2024/Kassenabschluss/Jahresbericht_OV_Waldenbuch.xlsx
+++ b/2024/Kassenabschluss/Jahresbericht_OV_Waldenbuch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2024\Kassenabschluss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3AFFA6-40E6-4326-B0FD-FB40075BF91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F135924-B0DE-4C0D-97DB-F41D25EF076E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seite 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
   <si>
     <t>Kreisverband</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>Porto</t>
+  </si>
+  <si>
+    <t>Ferdinando Puccinelli, Sibylle Wenzel</t>
   </si>
 </sst>
 </file>
@@ -817,22 +820,57 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -840,26 +878,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -875,72 +899,51 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1327,8 +1330,8 @@
   </sheetPr>
   <dimension ref="A2:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:I22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1338,32 +1341,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="8" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="22"/>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -1390,15 +1393,15 @@
         <v>1</v>
       </c>
       <c r="B11" s="22"/>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -1445,13 +1448,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -1474,19 +1477,19 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="24" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -1509,19 +1512,19 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="24" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -1544,17 +1547,19 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -1577,19 +1582,19 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1615,16 +1620,16 @@
       <c r="A31" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -1650,16 +1655,16 @@
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
     </row>
     <row r="35" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -1685,27 +1690,27 @@
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="29"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="29"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -1728,17 +1733,17 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
     </row>
     <row r="42" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -1761,22 +1766,32 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="D19:I19"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="F44:I44"/>
     <mergeCell ref="A11:B11"/>
@@ -1789,16 +1804,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="D19:I19"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -1815,7 +1820,7 @@
   </sheetPr>
   <dimension ref="A2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F46" sqref="F46:G47"/>
     </sheetView>
   </sheetViews>
@@ -1830,15 +1835,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1904,11 +1909,11 @@
         <v>1341.85</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -1916,9 +1921,9 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -1961,13 +1966,13 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="74">
+      <c r="B14" s="31">
         <v>1385</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="34">
         <v>2250.19</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -1977,9 +1982,9 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="47"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="35"/>
       <c r="E15" s="7" t="s">
         <v>34</v>
       </c>
@@ -1987,9 +1992,9 @@
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="48"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="36"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -2006,7 +2011,7 @@
         <v>182.55999999999997</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="57" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2016,7 +2021,7 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="E19" s="46"/>
+      <c r="E19" s="57"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -2105,7 +2110,7 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="19" t="s">
         <v>112</v>
       </c>
       <c r="F30" s="7"/>
@@ -2149,7 +2154,7 @@
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B35" s="7"/>
@@ -2158,7 +2163,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="19" t="s">
         <v>110</v>
       </c>
       <c r="B36" s="7">
@@ -2223,37 +2228,37 @@
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="F43" s="42">
+      <c r="F43" s="53">
         <v>28353.040000000001</v>
       </c>
-      <c r="G43" s="43"/>
+      <c r="G43" s="54"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="56"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
+      <c r="A45" s="46"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="56"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E46" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F46" s="77">
+      <c r="F46" s="38">
         <f>F36</f>
         <v>11507.36</v>
       </c>
-      <c r="G46" s="34"/>
+      <c r="G46" s="39"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
@@ -2262,8 +2267,8 @@
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="E47" s="37"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="34"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="39"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
@@ -2274,11 +2279,11 @@
       <c r="E48" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F48" s="33">
+      <c r="F48" s="40">
         <f>G36</f>
         <v>14516.27</v>
       </c>
-      <c r="G48" s="34"/>
+      <c r="G48" s="39"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
@@ -2287,18 +2292,18 @@
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="E49" s="37"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="34"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="39"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="F50" s="33">
+      <c r="F50" s="40">
         <f>F43+F46-F48</f>
         <v>25344.13</v>
       </c>
-      <c r="G50" s="34"/>
+      <c r="G50" s="39"/>
     </row>
     <row r="51" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
@@ -2312,20 +2317,12 @@
         <f>SUM(C9:C49)</f>
         <v>8282.89</v>
       </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A44:A45"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F50:G51"/>
@@ -2335,6 +2332,14 @@
     <mergeCell ref="E43:E45"/>
     <mergeCell ref="F43:G45"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:G47"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -2350,7 +2355,7 @@
   </sheetPr>
   <dimension ref="A2:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -2364,884 +2369,848 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" s="16" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="55"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="65"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="59"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
     </row>
     <row r="27" spans="1:10" s="16" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="73"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60"/>
     </row>
     <row r="28" spans="1:10" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="55"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="65"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="59"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="67"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="61" t="s">
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="55"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="57"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="74"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21" t="s">
+      <c r="C48" s="26"/>
+      <c r="D48" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="21" t="s">
+      <c r="H48" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="I48" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="J48" s="57"/>
+      <c r="I48" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J48" s="74"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="56" t="s">
+      <c r="A49" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="21"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="59"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="67"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21" t="s">
+      <c r="C50" s="26"/>
+      <c r="D50" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="75"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="21" t="s">
+      <c r="H50" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I50" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="J50" s="55"/>
+      <c r="I50" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="J50" s="65"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="21"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="59"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="67"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21" t="s">
+      <c r="A52" s="71"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="21" t="s">
+      <c r="H52" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="J52" s="55"/>
+      <c r="I52" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="J52" s="65"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21" t="s">
+      <c r="A53" s="71"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="59"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="67"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="H54" s="21"/>
-      <c r="I54" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="J54" s="55"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" s="65"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="59"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="67"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="59"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="67"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="55"/>
+      <c r="A59" s="77"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="65"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="69" t="s">
+      <c r="A60" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="57"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="74"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="57"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="74"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="56" t="s">
+      <c r="A62" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="21" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I62" s="21"/>
-      <c r="J62" s="57"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="74"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="57"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="74"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="21" t="s">
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I64" s="21"/>
-      <c r="J64" s="57"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="74"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="59"/>
+      <c r="A65" s="70"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="D8:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:H11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:H5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="D12:H13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:H15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:H19"/>
-    <mergeCell ref="D20:H21"/>
-    <mergeCell ref="D29:H30"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="D23:H24"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="D31:H32"/>
-    <mergeCell ref="D33:H34"/>
-    <mergeCell ref="D35:H36"/>
-    <mergeCell ref="D37:H38"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="D39:H40"/>
-    <mergeCell ref="D42:H43"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="F46:F56"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="G46:J47"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="B35:C36"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="I48:J49"/>
+    <mergeCell ref="I50:J51"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="A42:C43"/>
+    <mergeCell ref="A41:H41"/>
     <mergeCell ref="I52:J53"/>
     <mergeCell ref="I54:J55"/>
     <mergeCell ref="A48:A49"/>
@@ -3256,29 +3225,65 @@
     <mergeCell ref="A53:E53"/>
     <mergeCell ref="G52:G53"/>
     <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="B35:C36"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="I48:J49"/>
-    <mergeCell ref="I50:J51"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="A42:C43"/>
+    <mergeCell ref="G54:H55"/>
+    <mergeCell ref="D31:H32"/>
+    <mergeCell ref="D33:H34"/>
+    <mergeCell ref="D35:H36"/>
+    <mergeCell ref="D37:H38"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="D39:H40"/>
+    <mergeCell ref="D42:H43"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="D20:H21"/>
+    <mergeCell ref="D29:H30"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="D23:H24"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:H19"/>
+    <mergeCell ref="D12:H13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:H15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="D8:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:H11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:H5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:H7"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="F46:F56"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="G46:J47"/>
-    <mergeCell ref="B48:C49"/>
-    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
